--- a/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>INFO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1080800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1120400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1112300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1135500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1046400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1067800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1001000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1008300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>932100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>944700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>904700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>906100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>844200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>873800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>415800</v>
+      </c>
+      <c r="E9" s="3">
         <v>409500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>419700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>428000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>399800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>409100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>375300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>368400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>342900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>342100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>341600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>337700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>327000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>345500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>665000</v>
+      </c>
+      <c r="E10" s="3">
         <v>710900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>692600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>707500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>646600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>658700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>625700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>639900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>589200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>602600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>563100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>568400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>517200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>528300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-366900</v>
+      </c>
+      <c r="E14" s="3">
         <v>6700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-88500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>31000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>41600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>42100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>36900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E15" s="3">
         <v>142100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>144700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>144000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>142300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>145500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>134100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>131000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>130600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>128100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>120800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>122800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>120800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>509900</v>
+      </c>
+      <c r="E17" s="3">
         <v>873400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>769500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>896800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>871400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>907600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>840700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>827700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>792400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>805500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>752200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>769300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>748500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>761600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>570900</v>
+      </c>
+      <c r="E18" s="3">
         <v>247000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>342800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>238700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>175000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>160200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>160300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>180600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>139700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>139200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>136800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>400</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>695100</v>
+      </c>
+      <c r="E21" s="3">
         <v>387300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>487900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>383100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>317400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>305300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>302400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>312500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>271000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>267900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>273800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>260200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>217000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E22" s="3">
         <v>63800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>63200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>65800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>66900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>67400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>56700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>55300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>46300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>41500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>31800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>488600</v>
+      </c>
+      <c r="E23" s="3">
         <v>181400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>280000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>173300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>108200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>92400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>111600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>126200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>94100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>96500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>111500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>99700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>64400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>240600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-36700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>484300</v>
+      </c>
+      <c r="E26" s="3">
         <v>202700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>39400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>149100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>109100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>103700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>114200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>104700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>105100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>148200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E27" s="3">
         <v>203100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>40100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>149800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>109700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>76800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>104500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>114700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>105300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>105700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>66000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,21 +1652,21 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>5000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>136000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1616,10 +1677,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
       </c>
       <c r="G32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E33" s="3">
         <v>203100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>40100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>149800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>109700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>81800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>104500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>114700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>241300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>105700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>66000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E35" s="3">
         <v>203100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>40100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>149800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>109700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>81800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>104500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>114700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>241300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>105700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>66000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143900</v>
+      </c>
+      <c r="E41" s="3">
         <v>111500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>124100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>109500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>133200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>120000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>154400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>159000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>156000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>133800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>153800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>162500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>154800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>979700</v>
+      </c>
+      <c r="E43" s="3">
         <v>890700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>880500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>868300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>995600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>813700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>778800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>734100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>837100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>725400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>670400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>701900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>727400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>661600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2239,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E45" s="3">
         <v>305600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>184400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>283400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>197400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>165700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>180900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1314000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>155800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>147900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>159800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>162400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1338300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1307800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1189000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1261200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1326200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1099400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1114100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2207100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1165800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1015000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>972100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1024200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1044600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>933500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1045600</v>
+      </c>
+      <c r="E48" s="3">
         <v>658200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>623900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>615100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>596400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>579600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>591900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>508900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>539700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>531300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>506900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>470100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>445000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>416200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13882500</v>
+      </c>
+      <c r="E49" s="3">
         <v>14005300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13986800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14048500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14359500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14320800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14438200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11686900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12939000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12966800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12467800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12513400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12454300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12561600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E52" s="3">
         <v>115900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>103900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>108500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>63500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16380100</v>
+      </c>
+      <c r="E54" s="3">
         <v>16087200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15903600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16033300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16383400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16062300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16206300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14465800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14696700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14554400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14016900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14071200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14005700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13936600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E57" s="3">
         <v>59700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>60000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,219 +2806,234 @@
         <v>251100</v>
       </c>
       <c r="E58" s="3">
+        <v>251100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>364300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>484900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>789900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1166300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>105800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>576000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>561100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>561200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>582900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1638800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1658400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1634900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1521800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1545900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1466600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1357500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1413800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1339400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1276700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1229700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1238400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1332000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1248900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1922500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1969200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1663300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1919700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2087200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2320300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2563400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1561700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1480400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1906100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1840700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1859600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1967400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1412400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4961300</v>
+      </c>
+      <c r="E61" s="3">
         <v>4874400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5051200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4893500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5111400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4889200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4893800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4353700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4186100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3617300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3424700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3423200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3131500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3279300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1113200</v>
+      </c>
+      <c r="E62" s="3">
         <v>812700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>938200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>816900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>834800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>826400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>850600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>773800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>859500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1007500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>979800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1121500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1156900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1102800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8011100</v>
+      </c>
+      <c r="E66" s="3">
         <v>7671400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7668600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7646900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8051100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8041800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8314700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6697100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6534400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6550000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6314800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6462600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6314000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5852200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3689400</v>
+      </c>
+      <c r="E72" s="3">
         <v>3295000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3094700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3054800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2906400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2743100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2684000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2579500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2464800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2217600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2116800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1971000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1872300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1806900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8369000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8415800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8235000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8386400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8332300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8020500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7891600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7768700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8162300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8004400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7702100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7608600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7691700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8084400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E81" s="3">
         <v>203100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>40100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>149800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>109700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>81800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>104500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>114700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>241300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>105700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>66000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E83" s="3">
         <v>142100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>144700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>144000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>142300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>145500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>134100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>131000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>130600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>128100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>120800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>122800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>120800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E89" s="3">
         <v>225700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>412900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>424700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>188000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>357500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>346400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>382700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>202900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>242900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>267300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>250700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-78200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-70000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-66700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-53800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-59500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-68400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-71700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-103300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-68800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1930800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-458200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-66300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-66400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4381,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-67700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-462100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-196100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-334500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-315500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-111900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-328000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1595300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-275400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-118900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>172000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-208100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-126600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-166600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-152200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>22800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-29400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-29600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-15500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-61800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>INFO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1026600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1080800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1120400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1112300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1135500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1046400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1067800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1001000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1008300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>932100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>944700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>904700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>906100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>844200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>873800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>388300</v>
+      </c>
+      <c r="E9" s="3">
         <v>415800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>409500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>419700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>428000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>399800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>409100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>375300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>368400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>342900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>342100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>341600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>337700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>327000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>345500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>638300</v>
+      </c>
+      <c r="E10" s="3">
         <v>665000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>710900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>692600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>707500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>646600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>658700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>625700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>639900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>589200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>602600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>563100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>568400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>517200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>528300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-366900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-88500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>31000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>41600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>42100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>36900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E15" s="3">
         <v>145300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>142100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>144700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>144000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>142300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>145500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>134100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>131000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>130600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>128100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>120800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>122800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>120800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>882500</v>
+      </c>
+      <c r="E17" s="3">
         <v>509900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>873400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>769500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>896800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>871400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>907600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>840700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>827700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>792400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>805500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>752200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>769300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>748500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>761600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E18" s="3">
         <v>570900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>247000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>342800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>238700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>175000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>160200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>160300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>180600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>139700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>139200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>152500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>136800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-21100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
+        <v>400</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>284800</v>
+      </c>
+      <c r="E21" s="3">
         <v>695100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>387300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>487900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>383100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>317400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>305300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>302400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>312500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>271000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>267900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>273800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>260200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>217000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="3">
         <v>61200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>63800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>63200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>65800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>66900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>67400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>55300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>41500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>31800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E23" s="3">
         <v>488600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>181400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>280000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>173300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>108200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>92400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>111600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>126200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>94100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>96500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>111500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>99700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>64400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-21300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>240600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-36700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E26" s="3">
         <v>484300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>202700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>39400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>149100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>109100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>103700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>114200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>104700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>105100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>148200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>68000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E27" s="3">
         <v>485000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>203100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>149800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>109700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>104500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>114700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>105300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>105700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>145900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>99300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>66000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,21 +1716,21 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>5000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>136000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1680,10 +1741,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E32" s="3">
         <v>21100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E33" s="3">
         <v>485000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>203100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>149800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>109700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>81800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>104500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>241300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>105700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>145900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>99300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>66000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E35" s="3">
         <v>485000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>203100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>149800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>109700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>81800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>104500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>241300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>105700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>145900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>99300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>66000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>207800</v>
+      </c>
+      <c r="E41" s="3">
         <v>143900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>111500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>124100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>109500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>133200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>120000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>154400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>156000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>133800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>153800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>162500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>154800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>876100</v>
+      </c>
+      <c r="E43" s="3">
         <v>979700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>890700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>880500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>868300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>995600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>813700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>778800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>734100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>837100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>725400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>670400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>701900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>727400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>661600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,102 +2338,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E45" s="3">
         <v>214700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>305600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>184400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>283400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>197400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>165700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>180900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1314000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>155800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>147900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>159800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>162400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1302400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1338300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1307800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1189000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1261200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1326200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1099400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1114100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2207100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1165800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1015000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>972100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1024200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1044600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>933500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1034700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1045600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>658200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>623900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>615100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>596400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>579600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>591900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>508900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>539700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>531300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>506900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>470100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>445000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>416200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13673000</v>
+      </c>
+      <c r="E49" s="3">
         <v>13882500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14005300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13986800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14048500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14359500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14320800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14438200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11686900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12939000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12966800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12467800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12513400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12454300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12561600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E52" s="3">
         <v>113700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>115900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>103900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>108500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>70100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16128900</v>
+      </c>
+      <c r="E54" s="3">
         <v>16380100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16087200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15903600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16033300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16383400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16062300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16206300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14465800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14696700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14554400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14016900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14071200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14005700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13936600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E57" s="3">
         <v>32600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>50100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>60000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>52500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>251100</v>
+        <v>251000</v>
       </c>
       <c r="E58" s="3">
         <v>251100</v>
       </c>
       <c r="F58" s="3">
+        <v>251100</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>364300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>484900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>789900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1166300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>105800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>90900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>576000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>561100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>561200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>582900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1519700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1638800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1658400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1634900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1521800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1545900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1466600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1357500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1413800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1339400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1276700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1229700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1238400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1332000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1248900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1791200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1922500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1969200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1663300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1919700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2087200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2320300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2563400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1561700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1480400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1906100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1840700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1859600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1967400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1412400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5136500</v>
+      </c>
+      <c r="E61" s="3">
         <v>4961300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4874400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5051200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4893500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5111400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4889200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4893800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4353700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4186100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3617300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3424700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3423200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3131500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3279300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1079600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1113200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>812700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>938200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>816900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>834800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>826400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>850600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>773800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>859500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1007500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>979800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1121500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1156900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1102800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8020500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8011100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7671400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7668600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7646900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8051100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8041800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8314700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6697100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6534400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6550000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6314800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6462600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6314000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5852200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3677800</v>
+      </c>
+      <c r="E72" s="3">
         <v>3689400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3295000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3094700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3054800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2906400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2743100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2684000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2579500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2464800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2217600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2116800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1971000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1872300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1806900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8108400</v>
+      </c>
+      <c r="E76" s="3">
         <v>8369000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8415800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8235000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8386400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8332300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8020500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7891600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7768700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8162300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8004400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7702100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7608600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7691700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8084400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E81" s="3">
         <v>485000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>203100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>149800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>109700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>81800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>104500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>241300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>105700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>145900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>99300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>66000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E83" s="3">
         <v>145300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>142100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>144700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>144000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>142300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>145500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>134100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>131000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>130600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>128100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>120800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>122800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>120800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E89" s="3">
         <v>119500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>225700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>412900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>424700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>188000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>357500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>346400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>382700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>202900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>242900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>267300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>250700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-78000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-78200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-70000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-66700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-53800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-68400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="E94" s="3">
         <v>387000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-68800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1930800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-458200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-66300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,17 +4615,18 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-67700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-462100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-196100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-334500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-315500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-111900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-328000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1595300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-275400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-118900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>172000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-208100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-126600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-166600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-152200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>22800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-29400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-29600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E102" s="3">
         <v>32400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-61800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>INFO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1026600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1080800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1120400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1112300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1135500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1046400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1067800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1001000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1008300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>932100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>944700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>904700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>906100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>844200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>873800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>385600</v>
+      </c>
+      <c r="E9" s="3">
         <v>388300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>415800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>409500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>419700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>428000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>399800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>409100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>375300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>368400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>342900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>342100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>341600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>337700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>327000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>345500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>687600</v>
+      </c>
+      <c r="E10" s="3">
         <v>638300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>665000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>710900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>692600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>707500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>646600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>658700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>625700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>639900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>589200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>602600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>563100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>568400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>517200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>528300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E14" s="3">
         <v>89300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-366900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-88500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>31000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>41600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>36900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E15" s="3">
         <v>149400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>145300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>142100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>144700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>144000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>142300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>145500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>134100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>131000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>130600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>128100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>120800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>122800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>120800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E17" s="3">
         <v>882500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>509900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>873400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>769500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>896800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>871400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>907600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>840700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>827700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>792400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>805500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>752200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>769300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>748500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>761600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E18" s="3">
         <v>144100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>570900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>247000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>342800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>238700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>175000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>160200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>160300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>180600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>139700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>139200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>152500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>136800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>95700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E21" s="3">
         <v>284800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>695100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>387300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>487900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>383100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>317400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>305300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>302400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>312500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>271000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>267900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>273800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>260200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>217000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E22" s="3">
         <v>60000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>61200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>63800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>63200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>65800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>66900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>67400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>37700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>31800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E23" s="3">
         <v>75400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>488600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>181400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>280000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>173300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>108200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>92400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>111600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>126200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>94100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>96500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>111500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>99700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-21300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>240600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-36700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E26" s="3">
         <v>70700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>484300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>202700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>39400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>149100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>109100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>103700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>104700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>105100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>148200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>68000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E27" s="3">
         <v>71700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>485000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>203100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>40100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>149800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>109700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>76800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>114700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>105300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>105700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>145900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>99300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>66000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,21 +1780,21 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>5000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>136000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1744,10 +1805,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>8700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E33" s="3">
         <v>71700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>485000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>203100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>149800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>109700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>81800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>241300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>105700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>145900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>99300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>66000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E35" s="3">
         <v>71700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>485000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>203100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>149800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>109700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>81800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>241300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>105700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>145900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>99300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>66000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E41" s="3">
         <v>207800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>143900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>111500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>124100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>109500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>133200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>120000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>154400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>156000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>133800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>153800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>162500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>154800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>859700</v>
+      </c>
+      <c r="E43" s="3">
         <v>876100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>979700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>890700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>880500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>868300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>995600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>813700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>778800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>734100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>837100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>725400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>670400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>701900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>727400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>661600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,108 +2437,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E45" s="3">
         <v>218500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>214700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>305600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>184400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>283400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>197400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>165700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>180900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1314000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>172700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>155800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>147900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>159800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>162400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1226000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1302400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1338300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1307800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1189000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1261200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1326200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1099400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1114100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2207100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1165800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1015000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>972100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1024200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1044600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>933500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1037400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1034700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1045600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>658200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>623900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>615100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>596400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>579600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>591900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>508900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>539700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>531300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>506900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>470100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>445000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>416200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13849800</v>
+      </c>
+      <c r="E49" s="3">
         <v>13673000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13882500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14005300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13986800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14048500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14359500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14320800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14438200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11686900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12939000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12966800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12467800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12513400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12454300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12561600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E52" s="3">
         <v>118800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>113700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>115900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>103900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>108500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>70100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>63500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16233600</v>
+      </c>
+      <c r="E54" s="3">
         <v>16128900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16380100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16087200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15903600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16033300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16383400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16062300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16206300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14465800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14696700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14554400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14016900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14071200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14005700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13936600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E57" s="3">
         <v>20500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>50100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>60000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>52500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E58" s="3">
         <v>251000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>251100</v>
       </c>
       <c r="F58" s="3">
         <v>251100</v>
       </c>
       <c r="G58" s="3">
+        <v>251100</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>364300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>484900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>789900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1166300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>105800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>90900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>576000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>561100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>561200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>582900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1564400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1519700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1638800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1658400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1634900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1521800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1545900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1466600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1357500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1413800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1339400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1276700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1229700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1238400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1332000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1248900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1838300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1791200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1922500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1969200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1663300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1919700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2087200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2320300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2563400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1561700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1480400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1906100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1840700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1859600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1967400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1412400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4707600</v>
+      </c>
+      <c r="E61" s="3">
         <v>5136500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4961300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4874400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5051200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4893500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5111400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4889200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4893800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4353700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4186100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3617300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3424700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3423200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3131500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3279300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1080800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1079600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1113200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>812700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>938200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>816900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>834800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>826400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>850600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>773800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>859500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1007500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>979800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1121500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1156900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1102800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7640700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8020500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8011100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7671400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7668600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7646900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8051100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8041800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8314700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6697100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6534400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6550000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6314800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6462600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6314000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5852200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3759700</v>
+      </c>
+      <c r="E72" s="3">
         <v>3677800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3689400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3295000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3094700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3054800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2906400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2743100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2684000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2579500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2464800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2217600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2116800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1971000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1872300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1806900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8592900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8108400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8369000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8415800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8235000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8386400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8332300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8020500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7891600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7768700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8162300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8004400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7702100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7608600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7691700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8084400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E81" s="3">
         <v>71700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>485000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>203100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>149800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>109700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>81800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>241300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>105700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>145900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>99300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>66000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E83" s="3">
         <v>149400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>142100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>144700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>144000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>142300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>145500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>134100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>131000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>130600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>128100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>120800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>122800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>120800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>402800</v>
+      </c>
+      <c r="E89" s="3">
         <v>278200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>119500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>225700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>412900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>424700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>188000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>357500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>346400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>382700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>202900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>242900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>267300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>250700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-78000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-78200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-66700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-68400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-71700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-48300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-99700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>387000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-103300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-68800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-47900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1930800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-458200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-66300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-66400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,20 +4849,21 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-67600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-67700</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-464700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-462100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-196100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-334500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-315500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-111900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-328000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1595300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-275400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-118900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>172000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-208100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-126600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-166600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-152200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>22800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-29400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-29600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-26000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>23300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E102" s="3">
         <v>63900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-61800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>INFO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,270 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1119900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1107200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1073200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1026600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1080800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1120400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1112300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1135500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1046400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1067800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1001000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1008300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>932100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>944700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>904700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>906100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>844200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>873800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>415200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400300</v>
+      </c>
+      <c r="F9" s="3">
         <v>385600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>388300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>415800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>409500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>419700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>428000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>399800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>409100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>375300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>368400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>342900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>342100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>341600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>337700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>327000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>345500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>704700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>706900</v>
+      </c>
+      <c r="F10" s="3">
         <v>687600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>638300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>665000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>710900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>692600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>707500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>646600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>658700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>625700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>639900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>589200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>602600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>563100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>568400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>517200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>528300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,114 +1062,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>85500</v>
+      </c>
+      <c r="F14" s="3">
         <v>21200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>89300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-366900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-88500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>23100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>31000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>41600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>42100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>25800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>27000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>36900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>14800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>29900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>31400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>149300</v>
+      </c>
+      <c r="F15" s="3">
         <v>147600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>149400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>145300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>142100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>144700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>144000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>142300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>145500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>134100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>131000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>130600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>128100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>120800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>122800</v>
       </c>
       <c r="R15" s="3">
         <v>120800</v>
       </c>
       <c r="S15" s="3">
+        <v>122800</v>
+      </c>
+      <c r="T15" s="3">
+        <v>120800</v>
+      </c>
+      <c r="U15" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>886500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>932900</v>
+      </c>
+      <c r="F17" s="3">
         <v>812000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>882500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>509900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>873400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>769500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>896800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>871400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>907600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>840700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>827700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>792400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>805500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>752200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>769300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>748500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>761600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>233400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>174300</v>
+      </c>
+      <c r="F18" s="3">
         <v>261200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>144100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>570900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>247000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>342800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>238700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>175000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>160200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>160300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>180600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>139700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>139200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>152500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>136800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>95700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,49 +1345,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-8700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-21100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>500</v>
       </c>
       <c r="Q20" s="3">
         <v>600</v>
@@ -1331,222 +1398,252 @@
         <v>500</v>
       </c>
       <c r="S20" s="3">
+        <v>600</v>
+      </c>
+      <c r="T20" s="3">
+        <v>500</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>385100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>322600</v>
+      </c>
+      <c r="F21" s="3">
         <v>409000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>284800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>695100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>387300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>487900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>383100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>317400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>305300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>302400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>312500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>271000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>267900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>273800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>260200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>217000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E22" s="3">
         <v>57700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>57700</v>
+      </c>
+      <c r="G22" s="3">
         <v>60000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>61200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>63800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>63200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>65800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>66900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>67400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>56700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>55300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>46300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>43300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>41500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>37700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>31800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F23" s="3">
         <v>203700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>75400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>488600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>181400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>280000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>173300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>108200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>92400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>111600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>126200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>94100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>96500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>111500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>99700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>64400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="F24" s="3">
         <v>39900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-21300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>240600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>24200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>16300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-10600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>151200</v>
+      </c>
+      <c r="F26" s="3">
         <v>163800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>70700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>484300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>202700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>39400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>149100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>109100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>76100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>103700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>114200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>104700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>105100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>148200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>100700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>68000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F27" s="3">
         <v>162900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>71700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>485000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>203100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>40100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>149800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>109700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>76800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>104500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>114700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>105300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>105700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>145900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>99300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>66000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,24 +1904,24 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>5000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>136000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1808,10 +1929,16 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,49 +2049,55 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>8700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>21100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-500</v>
       </c>
       <c r="Q32" s="3">
         <v>-600</v>
@@ -1967,63 +2106,75 @@
         <v>-500</v>
       </c>
       <c r="S32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F33" s="3">
         <v>162900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>71700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>485000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>203100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>40100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>149800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>109700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>81800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>104500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>114700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>241300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>105700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>145900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>99300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>66000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F35" s="3">
         <v>162900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>71700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>485000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>203100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>40100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>149800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>109700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>81800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>104500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>114700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>241300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>105700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>145900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>99300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>66000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>125600</v>
+      </c>
+      <c r="F41" s="3">
         <v>156800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>207800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>143900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>111500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>124100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>109500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>133200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>120000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>154400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>159000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>156000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>133800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>153800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>162500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>154800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2513,73 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>981900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>891700</v>
+      </c>
+      <c r="F43" s="3">
         <v>859700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>876100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>979700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>890700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>880500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>868300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>995600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>813700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>778800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>734100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>837100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>725400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>670400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>701900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>727400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>661600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,114 +2631,132 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1096400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>216000</v>
+      </c>
+      <c r="F45" s="3">
         <v>209500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>218500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>214700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>305600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>184400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>283400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>197400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>165700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>180900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1314000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>172700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>155800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>147900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>159800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>162400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2250300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1233300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1226000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1302400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1338300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1307800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1189000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1261200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1326200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1099400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1114100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2207100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1165800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1015000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>972100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1024200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1044600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>933500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>966900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1021600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1037400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1034700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1045600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>658200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>623900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>615100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>596400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>579600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>591900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>508900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>539700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>531300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>506900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>470100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>445000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>416200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13171900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>13754800</v>
+      </c>
+      <c r="F49" s="3">
         <v>13849800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>13673000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>13882500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>14005300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13986800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14048500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14359500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14320800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14438200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>11686900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12939000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12966800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12467800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>12513400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>12454300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>12561600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>125500</v>
+      </c>
+      <c r="F52" s="3">
         <v>120400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>118800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>113700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>115900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>103900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>108500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>101300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>62500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>62100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>62900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>52200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>41300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>70100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>63500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>61800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16669600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16135200</v>
+      </c>
+      <c r="F54" s="3">
         <v>16233600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16128900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16380100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16087200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15903600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16033300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16383400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16062300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16206300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14465800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14696700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>14554400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14016900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>14071200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>14005700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>13936600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3271,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F57" s="3">
         <v>22800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>20500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>32600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>59700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>27200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>33600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>56400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>63800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>39600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>42100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>50100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>53400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>49900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>60000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>52500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>251100</v>
+        <v>478100</v>
       </c>
       <c r="E58" s="3">
-        <v>251000</v>
+        <v>268100</v>
       </c>
       <c r="F58" s="3">
         <v>251100</v>
       </c>
       <c r="G58" s="3">
+        <v>251000</v>
+      </c>
+      <c r="H58" s="3">
         <v>251100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>251100</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>364300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>484900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>789900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1166300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>105800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>90900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>576000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>561100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>561200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>582900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1852000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1662500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1564400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1519700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1638800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1658400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1634900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1521800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1545900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1466600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1357500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1413800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1339400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1276700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1229700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1238400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1332000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1248900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2361100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1978800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1838300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1791200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1922500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1969200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1663300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1919700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2087200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2320300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2563400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1561700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1480400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1906100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1840700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1859600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1967400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1412400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4642700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4641700</v>
+      </c>
+      <c r="F61" s="3">
         <v>4707600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5136500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4961300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4874400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5051200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4893500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5111400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4889200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4893800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4353700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4186100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3617300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3424700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3423200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3131500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3279300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>961200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>971500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1080800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1079600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1113200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>812700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>938200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>816900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>834800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>826400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>850600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>773800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>859500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1007500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>979800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1121500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1156900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1102800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7978200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7605800</v>
+      </c>
+      <c r="F66" s="3">
         <v>7640700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8020500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8011100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7671400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7668600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7646900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8051100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8041800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8314700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6697100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6534400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6550000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6314800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6462600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6314000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5852200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3910600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3842100</v>
+      </c>
+      <c r="F72" s="3">
         <v>3759700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3677800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3689400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3295000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3094700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3054800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2906400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2743100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2684000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2579500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2464800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2217600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2116800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1971000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1872300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1806900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8691400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8529400</v>
+      </c>
+      <c r="F76" s="3">
         <v>8592900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8108400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8369000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8415800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8235000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8386400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8332300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8020500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7891600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7768700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8162300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8004400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7702100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7608600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7691700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8084400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F81" s="3">
         <v>162900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>71700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>485000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>203100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>40100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>149800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>109700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>81800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>104500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>114700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>241300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>105700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>145900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>99300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>66000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>149300</v>
+      </c>
+      <c r="F83" s="3">
         <v>147600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>149400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>145300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>142100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>144700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>144000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>142300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>145500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>134100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>131000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>130600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>128100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>120800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>122800</v>
       </c>
       <c r="R83" s="3">
         <v>120800</v>
       </c>
       <c r="S83" s="3">
+        <v>122800</v>
+      </c>
+      <c r="T83" s="3">
+        <v>120800</v>
+      </c>
+      <c r="U83" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>244500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>338300</v>
+      </c>
+      <c r="F89" s="3">
         <v>402800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>278200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>119500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>225700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>412900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>424700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>188000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>357500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>346400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>382700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>202900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>242900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>267300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>200600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>250700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-64200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-69600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-78000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-78200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-70000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-66700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-63200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-54200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-53800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-59500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-55200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-68400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-61300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-58800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-71700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-48300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-263800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-31700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-99700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>387000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-65000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-34400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-103300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-68800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-47900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1930800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-78300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-55100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-458200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-66300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-55400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-66400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,25 +5315,27 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-67700</v>
+        <v>-79300</v>
       </c>
       <c r="E96" s="3">
-        <v>-67600</v>
+        <v>-67400</v>
       </c>
       <c r="F96" s="3">
         <v>-67700</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-67600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-67700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-317600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-464700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-462100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-196100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-334500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-315500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-111900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-328000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1595300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-275400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-118900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>172000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-208100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-126600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-166600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-152200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>42600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-14400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>22800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-29400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-29600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-15500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-6700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>23300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-10900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-51000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>63900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>32400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>14600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-23700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>13200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-34400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>22200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-20000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>15900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-61800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>INFO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1181400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1119900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1107200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1073200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1026600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1080800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1120400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1112300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1135500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1046400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1067800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1001000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1008300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>932100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>944700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>904700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>906100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>844200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>873800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>425800</v>
+      </c>
+      <c r="E9" s="3">
         <v>415200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>385600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>388300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>415800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>409500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>419700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>428000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>399800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>409100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>375300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>368400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>342900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>342100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>341600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>337700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>327000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>345500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>755600</v>
+      </c>
+      <c r="E10" s="3">
         <v>704700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>706900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>687600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>638300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>665000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>710900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>692600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>707500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>646600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>658700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>625700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>639900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>589200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>602600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>563100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>568400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>517200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>528300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>85500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>89300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-366900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-88500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>42100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>36900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>31400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E15" s="3">
         <v>151600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>149300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>147600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>149400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>145300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>142100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>144700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>144000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>142300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>145500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>134100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>131000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>130600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>128100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>120800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>122800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>120800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>905800</v>
+      </c>
+      <c r="E17" s="3">
         <v>886500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>932900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>812000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>882500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>509900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>873400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>769500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>896800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>871400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>907600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>840700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>827700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>792400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>805500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>752200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>769300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>748500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>761600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>275600</v>
+      </c>
+      <c r="E18" s="3">
         <v>233400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>174300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>261200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>144100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>570900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>247000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>342800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>238700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>175000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>160200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>160300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>180600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>139700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>139200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>152500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>136800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>95700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-21100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
       </c>
       <c r="L20" s="3">
+        <v>400</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>426100</v>
+      </c>
+      <c r="E21" s="3">
         <v>385100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>322600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>409000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>284800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>695100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>387300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>487900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>383100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>317400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>305300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>302400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>312500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>271000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>267900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>273800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>260200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>217000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E22" s="3">
         <v>55500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>57700</v>
       </c>
       <c r="F22" s="3">
         <v>57700</v>
       </c>
       <c r="G22" s="3">
+        <v>57700</v>
+      </c>
+      <c r="H22" s="3">
         <v>60000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>61200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>63800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>63200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>66900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>67400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>56700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>55300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>46300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>43300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>41500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>37700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>31800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E23" s="3">
         <v>178000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>115600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>203700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>75400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>488600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>181400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>280000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>173300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>108200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>92400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>111600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>126200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>94100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>96500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>111500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>99700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E24" s="3">
         <v>30300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-35600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-21300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>240600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-36700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E26" s="3">
         <v>147700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>151200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>163800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>70700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>484300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>202700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>109100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>104700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>105100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>148200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>68000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E27" s="3">
         <v>149300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>151100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>162900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>71700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>485000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>203100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>40100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>149800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>109700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>104500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>105300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>105700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>145900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>99300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>66000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1910,21 +1971,21 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>5000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>136000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -1935,10 +1996,13 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>21100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
       </c>
       <c r="L32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E33" s="3">
         <v>149300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>151100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>162900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>71700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>485000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>203100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>40100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>149800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>104500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>241300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>105700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>145900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>99300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>66000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E35" s="3">
         <v>149300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>151100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>162900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>71700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>485000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>203100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>40100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>149800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>104500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>241300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>105700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>145900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>99300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>66000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E41" s="3">
         <v>172000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>156800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>207800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>143900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>111500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>124100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>109500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>133200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>154400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>159000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>156000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>133800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>153800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>162500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>154800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>870900</v>
+      </c>
+      <c r="E43" s="3">
         <v>981900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>891700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>859700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>876100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>979700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>890700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>880500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>868300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>995600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>813700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>778800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>734100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>837100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>725400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>670400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>701900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>727400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>661600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2733,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1094500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1096400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>216000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>209500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>218500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>214700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>305600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>184400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>283400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>197400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>165700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>180900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1314000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>172700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>155800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>147900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>159800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>162400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2182800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2250300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1233300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1226000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1302400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1338300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1307800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1189000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1261200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1326200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1099400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1114100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2207100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1165800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1015000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>972100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1024200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1044600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>933500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>963100</v>
+      </c>
+      <c r="E48" s="3">
         <v>966900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1021600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1037400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1034700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1045600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>658200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>623900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>615100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>596400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>579600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>591900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>508900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>539700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>531300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>506900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>470100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>445000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>416200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13168100</v>
+      </c>
+      <c r="E49" s="3">
         <v>13171900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13754800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13849800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13673000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13882500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14005300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13986800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14048500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14359500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14320800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14438200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11686900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12939000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12966800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12467800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12513400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12454300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12561600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>280600</v>
+      </c>
+      <c r="E52" s="3">
         <v>280500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>125500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>120400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>118800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>113700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>115900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>108500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>101300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>62900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>52200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>70100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>63500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16594600</v>
+      </c>
+      <c r="E54" s="3">
         <v>16669600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16135200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16233600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16128900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16380100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16087200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15903600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16033300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16383400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16062300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16206300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14465800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14696700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14554400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14016900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14071200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14005700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13936600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E57" s="3">
         <v>31000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>56400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>50100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>53400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>60000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>52500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>333100</v>
+      </c>
+      <c r="E58" s="3">
         <v>478100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>268100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>251100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>251000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>251100</v>
       </c>
       <c r="I58" s="3">
         <v>251100</v>
       </c>
       <c r="J58" s="3">
+        <v>251100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>364300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>484900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>789900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1166300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>105800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>90900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>576000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>561100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>561200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>582900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1724800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1852000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1662500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1564400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1519700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1638800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1658400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1634900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1521800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1545900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1466600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1357500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1413800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1339400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1276700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1229700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1238400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1332000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1248900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2092500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2361100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1978800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1838300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1791200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1922500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1969200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1663300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1919700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2087200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2320300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2563400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1561700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1480400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1906100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1840700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1859600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1967400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1412400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4643800</v>
+      </c>
+      <c r="E61" s="3">
         <v>4642700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4641700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4707600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5136500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4961300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4874400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5051200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4893500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5111400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4889200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4893800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4353700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4186100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3617300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3424700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3423200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3131500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3279300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>929500</v>
+      </c>
+      <c r="E62" s="3">
         <v>961200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>971500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1080800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1079600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1113200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>812700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>938200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>816900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>834800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>826400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>850600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>773800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>859500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1007500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>979800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1121500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1156900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1102800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7678900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7978200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7605800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7640700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8020500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8011100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7671400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7668600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7646900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8051100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8041800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8314700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6697100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6534400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6550000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6314800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6462600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6314000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5852200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3988700</v>
+      </c>
+      <c r="E72" s="3">
         <v>3910600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3842100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3759700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3677800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3689400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3295000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3094700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3054800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2906400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2743100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2684000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2579500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2464800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2217600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2116800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1971000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1872300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1806900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8915700</v>
+      </c>
+      <c r="E76" s="3">
         <v>8691400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8529400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8592900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8108400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8369000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8415800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8235000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8386400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8332300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8020500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7891600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7768700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8162300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8004400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7702100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7608600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7691700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8084400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E81" s="3">
         <v>149300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>151100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>162900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>71700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>485000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>203100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>40100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>149800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>104500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>241300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>105700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>145900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>99300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>66000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E83" s="3">
         <v>151600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>149300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>147600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>149400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>145300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>142100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>144700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>144000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>142300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>145500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>134100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>131000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>130600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>128100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>120800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>122800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>120800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E89" s="3">
         <v>244500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>338300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>402800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>278200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>119500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>225700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>412900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>424700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>188000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>357500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>346400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>382700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>202900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>242900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>267300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>250700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-72600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-64200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-78000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-78200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-70000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-53800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-68400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-58800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-71700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-48300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-263800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-50600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-99700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>387000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-65000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-47900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1930800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-458200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-66300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-55400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-66400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,29 +5550,30 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-79300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-67400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-67700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-67600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-67700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-259800</v>
+      </c>
+      <c r="E100" s="3">
         <v>56700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-317600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-464700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-462100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-196100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-334500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-315500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-111900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-328000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1595300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-275400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-118900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>172000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-208100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-126600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-166600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-152200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>42600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>22800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-29400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-29600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-26000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E102" s="3">
         <v>46400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-51000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>63900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-61800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INFO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>INFO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1180500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1181400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1119900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1107200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1073200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1026600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1080800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1120400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1112300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1135500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1046400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1067800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1001000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1008300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>932100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>944700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>904700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>906100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>844200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>873800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>425700</v>
+      </c>
+      <c r="E9" s="3">
         <v>425800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>415200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>385600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>388300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>415800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>409500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>419700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>428000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>399800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>409100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>375300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>368400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>342900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>342100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>341600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>337700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>327000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>345500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>754800</v>
+      </c>
+      <c r="E10" s="3">
         <v>755600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>704700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>706900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>687600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>638300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>665000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>710900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>692600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>707500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>646600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>658700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>625700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>639900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>589200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>602600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>563100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>568400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>517200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>528300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,132 +1105,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E14" s="3">
         <v>40900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>85500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>89300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-366900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-88500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>41600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>42100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>27000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>36900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>31400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E15" s="3">
         <v>150500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>151600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>149300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>147600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>149400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>145300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>142100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>144700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>144000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>142300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>145500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>134100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>131000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>130600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>128100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>120800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>122800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>120800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>889700</v>
+      </c>
+      <c r="E17" s="3">
         <v>905800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>886500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>932900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>812000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>882500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>509900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>873400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>769500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>896800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>871400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>907600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>840700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>827700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>792400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>805500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>752200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>769300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>748500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>761600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>290800</v>
+      </c>
+      <c r="E18" s="3">
         <v>275600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>233400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>174300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>261200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>144100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>570900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>247000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>342800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>238700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>175000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>160200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>160300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>180600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>139700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>139200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>152500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>136800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>95700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-21100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E21" s="3">
         <v>426100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>385100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>322600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>409000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>284800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>695100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>387300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>487900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>383100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>317400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>305300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>302400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>312500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>271000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>267900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>273800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>260200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>217000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>231800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E22" s="3">
         <v>55400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>57700</v>
       </c>
       <c r="G22" s="3">
         <v>57700</v>
       </c>
       <c r="H22" s="3">
+        <v>57700</v>
+      </c>
+      <c r="I22" s="3">
         <v>60000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>61200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>63800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>63200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>65800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>66900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>67400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>46300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>43300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>41500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>37700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>31800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E23" s="3">
         <v>220200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>178000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>115600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>203700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>75400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>488600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>181400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>280000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>173300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>108200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>92400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>111600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>126200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>94100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>96500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>111500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>99700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>64400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E24" s="3">
         <v>57600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-35600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-21300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>240600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-36700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>164400</v>
+      </c>
+      <c r="E26" s="3">
         <v>162600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>147700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>151200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>163800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>70700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>484300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>202700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>149100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>109100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>103700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>114200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>104700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>105100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>148200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>68000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E27" s="3">
         <v>159000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>149300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>151100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>162900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>71700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>485000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>203100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>149800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>109700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>104500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>114700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>105300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>105700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>145900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>99300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>66000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>88100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1974,21 +2035,21 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>5000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>136000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -1999,10 +2060,13 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>21100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-400</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E33" s="3">
         <v>159000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>149300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>151100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>162900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>71700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>485000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>203100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>149800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>81800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>104500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>241300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>105700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>145900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>99300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>66000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E35" s="3">
         <v>159000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>149300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>151100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>162900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>71700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>485000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>203100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>149800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>81800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>104500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>241300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>105700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>145900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>99300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>66000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>337900</v>
+      </c>
+      <c r="E41" s="3">
         <v>217400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>172000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>156800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>207800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>143900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>111500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>124100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>109500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>133200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>154400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>159000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>156000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>133800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>153800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>162500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>154800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2702,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>857800</v>
+      </c>
+      <c r="E43" s="3">
         <v>870900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>981900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>891700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>859700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>876100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>979700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>890700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>880500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>868300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>995600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>813700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>778800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>734100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>837100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>725400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>670400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>701900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>727400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>661600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,132 +2832,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1463300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1094500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1096400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>216000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>209500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>218500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>214700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>305600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>184400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>283400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>197400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>165700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>180900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1314000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>172700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>155800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>147900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>159800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>162400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2659000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2182800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2250300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1233300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1226000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1302400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1338300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1307800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1189000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1261200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1326200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1099400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1114100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2207100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1165800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1015000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>972100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1024200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1044600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>933500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3027,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>952800</v>
+      </c>
+      <c r="E48" s="3">
         <v>963100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>966900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1021600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1037400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1034700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1045600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>658200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>623900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>615100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>596400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>579600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>591900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>508900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>539700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>531300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>506900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>470100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>445000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>416200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12587700</v>
+      </c>
+      <c r="E49" s="3">
         <v>13168100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13171900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13754800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13849800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13673000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13882500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14005300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13986800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14048500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14359500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14320800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14438200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11686900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12939000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12966800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12467800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12513400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12454300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12561600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E52" s="3">
         <v>280600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>280500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>125500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>120400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>118800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>113700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>115900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>108500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>101300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>62100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>62900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>52200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>70100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>63500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16496500</v>
+      </c>
+      <c r="E54" s="3">
         <v>16594600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16669600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16135200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16233600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16128900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16380100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16087200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15903600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16033300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16383400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16062300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16206300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14465800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14696700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14554400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14016900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14071200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14005700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13936600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E57" s="3">
         <v>34600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>56400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>50100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>60000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>52500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>236200</v>
+      </c>
+      <c r="E58" s="3">
         <v>333100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>478100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>268100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>251100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>251000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>251100</v>
       </c>
       <c r="J58" s="3">
         <v>251100</v>
       </c>
       <c r="K58" s="3">
+        <v>251100</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>364300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>484900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>789900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1166300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>105800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>90900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>576000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>561100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>561200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>582900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>104600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1776900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1724800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1852000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1662500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1564400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1519700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1638800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1658400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1634900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1521800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1545900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1466600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1357500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1413800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1339400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1276700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1229700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1238400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1332000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1248900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2048500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2092500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2361100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1978800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1838300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1791200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1922500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1969200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1663300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1919700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2087200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2320300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2563400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1561700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1480400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1906100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1840700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1859600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1967400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1412400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4644800</v>
+      </c>
+      <c r="E61" s="3">
         <v>4643800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4642700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4641700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4707600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5136500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4961300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4874400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5051200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4893500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5111400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4889200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4893800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4353700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4186100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3617300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3424700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3423200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3131500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3279300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>882300</v>
+      </c>
+      <c r="E62" s="3">
         <v>929500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>961200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>971500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1080800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1079600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1113200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>812700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>938200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>816900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>834800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>826400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>850600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>773800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>859500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1007500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>979800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1121500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1156900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1102800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7588500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7678900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7978200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7605800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7640700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8020500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8011100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7671400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7668600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7646900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8051100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8041800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8314700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6697100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6534400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6550000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6314800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6462600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6314000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5852200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4069000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3988700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3910600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3842100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3759700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3677800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3689400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3295000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3094700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3054800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2906400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2743100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2684000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2579500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2464800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2217600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2116800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1971000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1872300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1806900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8908000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8915700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8691400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8529400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8592900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8108400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8369000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8415800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8235000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8386400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8332300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8020500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7891600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7768700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8162300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8004400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7702100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7608600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7691700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8084400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E81" s="3">
         <v>159000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>149300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>151100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>162900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>71700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>485000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>203100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>149800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>81800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>104500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>241300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>105700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>145900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>99300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>66000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E83" s="3">
         <v>150500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>151600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>149300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>147600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>149400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>145300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>142100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>144700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>144000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>142300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>145500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>134100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>131000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>130600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>128100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>120800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>122800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>120800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>420700</v>
+      </c>
+      <c r="E89" s="3">
         <v>372000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>244500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>338300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>402800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>278200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>119500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>225700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>412900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>424700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>188000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>357500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>346400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>382700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>202900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>242900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>267300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>250700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>163200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-72600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-64200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-78000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-78200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-53800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-68400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-61300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-58800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-71700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-263800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-99700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>387000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-65000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-103300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-47900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1930800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-78300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-458200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-66300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-55400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-66400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,32 +5784,33 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-79700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-79300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-67400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-67700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-67600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-67700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-177900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-259800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>56700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-317600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-464700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-462100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-196100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-334500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-315500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-111900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-328000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1595300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-275400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-118900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>172000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-208100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-126600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-166600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-152200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>42600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>22800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-29400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-29600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E102" s="3">
         <v>45400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-51000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>63900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>22200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-20000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-61800</v>
       </c>
     </row>
